--- a/src/main/resources/KTP_REFUND_Form.xlsx
+++ b/src/main/resources/KTP_REFUND_Form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/backend/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/backend/sdk/tpay-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6DD600-1CCE-6A4C-948F-978592FFEAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289CEDFD-C167-3841-BB3F-BBBE022713BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{714C18D1-33B9-5D4A-8935-6246608ED36E}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{714C18D1-33B9-5D4A-8935-6246608ED36E}"/>
   </bookViews>
   <sheets>
     <sheet name="실젹명세(갑)-앞쪽" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +688,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -697,98 +748,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EACC1B-6E50-A44B-95FD-A1A1AAE25B0E}">
   <dimension ref="B1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="135" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1118,253 +1121,253 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="2:15" ht="19">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="2:15" ht="36" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="2:15" ht="5" customHeight="1"/>
     <row r="11" spans="2:15">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="2:15" ht="19" customHeight="1">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:15" ht="23" customHeight="1">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:15" ht="5" customHeight="1"/>
     <row r="16" spans="2:15">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="2:10" ht="33" customHeight="1">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="5" t="s">
         <v>32</v>
       </c>
@@ -2320,12 +2323,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="B7:C9"/>
@@ -2342,15 +2348,12 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,31 +2371,31 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2400,15 +2403,15 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -2416,15 +2419,15 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -2432,17 +2435,17 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -2460,224 +2463,231 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:J3"/>
@@ -2690,13 +2700,6 @@
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2714,100 +2717,100 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="5" customHeight="1"/>
     <row r="5" spans="2:10" ht="25" customHeight="1">
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="3" customHeight="1"/>
     <row r="7" spans="2:10">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="2:10" ht="37" customHeight="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="5" t="s">
         <v>32</v>
       </c>
@@ -3114,11 +3117,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B7:J7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B8:B9"/>
@@ -3127,6 +3125,11 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B7:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/KTP_REFUND_Form.xlsx
+++ b/src/main/resources/KTP_REFUND_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/backend/sdk/tpay-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289CEDFD-C167-3841-BB3F-BBBE022713BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2217A7-785C-7A4F-8879-5FA0BC6CE429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{714C18D1-33B9-5D4A-8935-6246608ED36E}"/>
   </bookViews>
@@ -688,6 +688,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -706,47 +757,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -775,23 +787,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EACC1B-6E50-A44B-95FD-A1A1AAE25B0E}">
-  <dimension ref="B1:O104"/>
+  <dimension ref="B1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="135" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1125,249 +1125,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="2:15" ht="19">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="2:15" ht="36" customHeight="1">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:15" ht="5" customHeight="1"/>
     <row r="11" spans="2:15">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:15" ht="19" customHeight="1">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="21"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="14"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:15" ht="23" customHeight="1">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="2:15" ht="5" customHeight="1"/>
     <row r="16" spans="2:15">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" ht="33" customHeight="1">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="26"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="5" t="s">
         <v>32</v>
       </c>
@@ -2321,17 +2321,344 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="B7:C9"/>
@@ -2348,12 +2675,15 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2371,31 +2701,31 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2403,15 +2733,15 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -2419,15 +2749,15 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -2435,17 +2765,17 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -2463,231 +2793,224 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:J3"/>
@@ -2700,6 +3023,13 @@
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2717,100 +3047,100 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="5" customHeight="1"/>
     <row r="5" spans="2:10" ht="25" customHeight="1">
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="3" customHeight="1"/>
     <row r="7" spans="2:10">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10" ht="37" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="5" t="s">
         <v>32</v>
       </c>
@@ -3117,6 +3447,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B8:B9"/>
@@ -3125,11 +3460,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B7:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/KTP_REFUND_Form.xlsx
+++ b/src/main/resources/KTP_REFUND_Form.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/backend/sdk/tpay-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2217A7-785C-7A4F-8879-5FA0BC6CE429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1CA34-EA28-C64B-9414-EC2E3DADF54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{714C18D1-33B9-5D4A-8935-6246608ED36E}"/>
+    <workbookView xWindow="53120" yWindow="23140" windowWidth="34560" windowHeight="19000" xr2:uid="{714C18D1-33B9-5D4A-8935-6246608ED36E}"/>
   </bookViews>
   <sheets>
     <sheet name="실젹명세(갑)-앞쪽" sheetId="1" r:id="rId1"/>
     <sheet name="실젹명세(갑)-뒤쪽" sheetId="2" r:id="rId2"/>
     <sheet name="실적명세(을)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'실젹명세(갑)-앞쪽'!$B$1:$J$104</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <r>
       <t xml:space="preserve">■ 외국인관광객 등에 대한 부가가치세 및 개별소비세 특례규정 시행규칙[별지 제6호의3서식] </t>
@@ -51,203 +54,199 @@
       </rPr>
       <t>&lt;개정 2016.3.9.&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>외국인관광객 즉시환급 물품 판매 실적명세서(갑)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(        년       기(월))</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(앞쪽)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1. 제출자 인적사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사업자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>①성명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>②사업자등록번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>③상호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>④사업장소재지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑤거래기간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>년     월     일   ~      월     일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑥ 면세판매장
     지정번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2. 물품판매 총합계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑦ 건수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑧ 세금포함
 판매가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑨ 부가가치세</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑩ 즉시환급상당액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑪ 환급창구운영사업자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>상호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3. 물품판매 명세</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑫
 일련
 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑬
 구매일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑭
 판매일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑮
 반출승인번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑯
 세금포함
 판매가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑰
 부가가치세</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑱
 즉시환급
 상당액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑲ 구입자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>성명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>국적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(뒤쪽)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>작 성 요 령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이 명세서는 외국인관광객에게 즉시환급 물품을 판매하고 영세율을 적용받으려는 면세판매자가 작성하며 아래의 작성요령에 따라
 한글, 아라비아숫자로 정확하고 선명하게 적어야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>① ~ ⑤ : 제출자의 사업자등록증에 기재된 내용을 적습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑥ : 면세판매장 지정증에 기재된 지정번호를 적습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑦ : ⑬번 일련번호 마지막 번호를 적습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑧ ~ ⑩ : 물품판매명세의 총합계를 적습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑪ : 면세판매장이 가맹한 환급창구운영사업자의 기본사항을 적습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑫ : 판매건별로 1번부터 부여하며 마지막 번호까지 순서대로 적습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑬ : 물품 판매 시 발행된 구매 일련번호(전표번호)를 적습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑭ : 물품 판매일자를 적습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑮ : 즉시환급 판매시 관세청장이 반출확인한 번호를 적습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -271,7 +270,7 @@
       </rPr>
       <t xml:space="preserve"> : 물품판매확인서의 세금포함 판매가격을 적습니다.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -295,7 +294,7 @@
       </rPr>
       <t xml:space="preserve"> : 물품판매확인서의 부가가치세를 적습니다.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -319,7 +318,7 @@
       </rPr>
       <t xml:space="preserve"> : 외국인관광객이 즉시환급 적용받은 세액상당액을 적습니다.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -343,23 +342,37 @@
       </rPr>
       <t xml:space="preserve"> : 외국인관광객의 성명 및 국적을 적습니다.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>외국인관광객 즉시환급 물품 판매 실적명세서(을)</t>
   </si>
   <si>
     <t>② 사업자등록번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>( 2022년11기(월))</t>
+  </si>
+  <si>
+    <t>석세스모드</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -469,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -527,19 +540,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -657,13 +657,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,27 +703,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -715,8 +754,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -724,7 +763,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -733,64 +775,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,570 +1146,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EACC1B-6E50-A44B-95FD-A1A1AAE25B0E}">
-  <dimension ref="B1:O134"/>
+  <dimension ref="B1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="135" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="2:15" ht="19">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="2:15" ht="36" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="2:15" ht="5" customHeight="1"/>
     <row r="11" spans="2:15">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="2:15" ht="19" customHeight="1">
+      <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="2:15" ht="19" customHeight="1">
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:15" ht="23" customHeight="1">
+      <c r="B14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="2:15" ht="23" customHeight="1">
-      <c r="B14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:15" ht="5" customHeight="1"/>
     <row r="16" spans="2:15">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" ht="33" customHeight="1">
+      <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:10" ht="33" customHeight="1">
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4"/>
@@ -2321,344 +2362,15 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-    </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-    </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-    </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-    </row>
-    <row r="114" spans="2:10">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-    </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-    </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-    </row>
-    <row r="124" spans="2:10">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-    </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-    </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-    </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-    </row>
-    <row r="134" spans="2:10">
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B6:J6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="B7:C9"/>
@@ -2674,7 +2386,6 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B17:B18"/>
@@ -2685,8 +2396,12 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="50" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -2694,38 +2409,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC93B6-3632-5C42-A1E4-07997237C6BF}">
   <dimension ref="B1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="172" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2733,15 +2448,15 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -2749,15 +2464,15 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -2765,17 +2480,17 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="B5" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -2784,230 +2499,230 @@
     </row>
     <row r="11" spans="2:15">
       <c r="J11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="37" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="39" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="32" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="32" t="s">
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="32" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="32" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="32" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="32" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="32" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="32" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="32" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="32" t="s">
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="32" t="s">
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3031,7 +2746,7 @@
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B33:J33"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3040,112 +2755,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2132A872-E7FE-CB44-8DF4-0882268B5FFB}">
   <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:10" ht="5" customHeight="1"/>
     <row r="5" spans="2:10" ht="25" customHeight="1">
-      <c r="G5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="G5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10" ht="3" customHeight="1"/>
     <row r="7" spans="2:10">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="G8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="I8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:10" ht="37" customHeight="1">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="2:10" ht="37" customHeight="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -3461,7 +3176,8 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>